--- a/Output_testing/R1_201907/Country/HKD/MN/VANUATU_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VANUATU_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>171</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/VANUATU_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VANUATU_201907_HKD_MN.xlsx
@@ -544,14 +544,20 @@
       <c r="C7" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.046158</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.01407</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.181072</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="G7" s="8" t="n">
         <v>1.055932</v>
@@ -559,8 +565,10 @@
       <c r="H7" s="9" t="n">
         <v>-69.51774340309372</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>1186.936744847193</v>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="J7" s="9" t="n">
         <v>917.2461296879666</v>
@@ -655,8 +663,10 @@
       <c r="F10" s="8" t="n">
         <v>1.83768</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.466708</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>-55.87661614005344</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/VANUATU_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VANUATU_201907_HKD_MN.xlsx
@@ -820,136 +820,493 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>18.893738</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>55.24484149183141</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>37.859999</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>79.53112806631528</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>26.38039</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>65.62444906937674</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>5.297577</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>41.87172381741269</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-53.8349827011149</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1.376841</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>4.025850406333286</v>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0.1017582534711736</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1.612446</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>4.011156787451597</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1.054221</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.332498150478346</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>25.1468742988674</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>0.977589</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.72680352073045</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1.309496</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.828935224685939</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.753045946705194</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.318616</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.280218697830671</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>0.63197</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.995052134379604</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-27.5884076370357</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.9985421183400109</v>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.505866</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.998333849723994</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>0.932015</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.72518973974389</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.742438</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.559612604831262</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1.113514</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.770002368465287</v>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.804118268215417</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-36.99284696912571</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.138986</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.330368031535903</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.2461032634630858</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.322386</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.289597034276476</v>
+      </c>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.626232224041884</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-47.68862745187468</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.7912162817290899</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.8773800336656576</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.7036637976337089</v>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.662750001580788</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>424.3816639427193</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7004005028771342</v>
+      </c>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.7504474256271022</v>
+      </c>
+      <c r="G26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.2576107128165067</v>
+      </c>
+      <c r="I26" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.298402139754282</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>196.4240570846075</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3818391366270016</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.09469372122733968</v>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.4335055174345389</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.205989288582286</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>116.4992436877012</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>9.908206</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>28.97135918463635</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>7.182153</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.08728856635391</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>7.890987</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>19.62979601471449</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>2.337834</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>18.47809660510025</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-53.46531835226867</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -981,136 +1338,607 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.977589</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>92.5806775436297</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>85.36438543783689</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>7.419322456370296</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>1.346666321699308</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>14.26946187152072</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>29.02638762511374</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.3661526906423964</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>70.97361237488626</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>RICE</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>046</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEAL AND FLOUR OF WHEAT AND FLOUR OF MESLIN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1142,136 +1970,481 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>18.893738</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>55.31950340234011</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>37.859999</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>79.5546415059942</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>26.38039</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>65.92138453851527</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>5.297577</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>45.68456780051859</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-53.8349827011149</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1.376841</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>4.031291234375186</v>
+      </c>
+      <c r="E45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0.1017883383777127</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1.612446</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.029306345114337</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1.054221</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.091256389709958</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>25.1468742988674</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1.309496</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>3.834109927180676</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.7532685853232273</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1.318616</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.295060929525259</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>0.63197</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.449902155814581</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-27.5884076370357</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>INTERNAL COMBUSTION PISTON ENGINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.9988373380915387</v>
+      </c>
+      <c r="G47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>0.505866</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.362422589605992</v>
+      </c>
+      <c r="K47" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>0.918617</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.689644381484885</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>0.728368</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.530508627970064</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.112851</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.780879232834362</v>
+      </c>
+      <c r="I48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.150521714924162</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-36.93811262707855</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.138986</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.334868933940851</v>
+      </c>
+      <c r="E49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.24617602408375</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1.322386</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.304481700776564</v>
+      </c>
+      <c r="I49" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.95643734712385</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-47.68862745187468</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>FABRICS, WOVEN, OF MAN-MADE TEXTILE MATERIALS (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.7922855891544395</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.8776394317529058</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.7068477137324983</v>
+      </c>
+      <c r="I50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.905220322753007</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>424.3816639427193</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7013470752312931</v>
+      </c>
+      <c r="E51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.750669295990364</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.2587763417695882</v>
+      </c>
+      <c r="I51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.507694902754297</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>196.4240570846075</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.3823551819025008</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.09472171749944332</v>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.4354670297370268</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.406866926733625</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>116.4992436877012</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>0.666343</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.951004288067587</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.633547</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.331262699246191</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.542424</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.355451571675764</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.490437899728768</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-68.06817551963049</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>9.209103000000001</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>26.96358998632248</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>6.548606</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>13.7604864356706</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>7.168154</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>17.91234459631933</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>2.08666</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>17.99467195033317</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-52.35351914150206</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1303,136 +2476,551 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1.993316</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>24.47917242321108</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>2.337361</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>73.08220118232929</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>11.165155</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>94.03019704379565</v>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>32.20370915368693</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-95.115141388122</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>2.711721956574553</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>0.2672643866730784</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>24.00175348079483</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>514.205136284859</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.2238021659589341</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.09502032822191295</v>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>20.40379313359578</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT JUICES AND VEGETABLE JUICES, UNFERMENTED AND NOT CONTAINING ADDED SPIRIT</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>12.00358576971527</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.7505919876761441</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.230886890790407</v>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.2978016693602246</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.212048038478067</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>19.88644329174261</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.08693456611190158</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.461387009135897</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.5648639339195436</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.915532465869309</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-15.56782878840179</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.2772106174380498</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.5185001983889379</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.153233827493829</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.741537669668353</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>22.36328661720253</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.3589463846156688</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1590939035757956</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>0.5425</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.568801946435955</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>6.036891</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>74.13681307385841</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.668446</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>20.90028243455901</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.1178371923217178</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
